--- a/200V_Geschw.xlsx
+++ b/200V_Geschw.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celin\OneDrive - Technische Universität Dortmund\Dokumente\Studium\Anfängerpraktikum\V503---Millikanversuch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V503---Millikanversuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453C60C-5582-43DB-AAE2-6B593D785275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63126F40-99B3-40BC-8720-A75023A81759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{EA0D0934-3C96-42B7-BB04-03236E4DF0BE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA0D0934-3C96-42B7-BB04-03236E4DF0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -422,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED0EE7E-16F1-4C78-A30B-FCABAD72C073}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="4" width="10.90625" style="1"/>
-    <col min="5" max="11" width="10.90625" style="2"/>
+    <col min="2" max="4" width="10.85546875" style="1"/>
+    <col min="5" max="11" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,7 +466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -480,11 +480,11 @@
         <v>12.57</v>
       </c>
       <c r="E2" s="2">
-        <f>0.5/B2</f>
+        <f t="shared" ref="E2:E31" si="0">0.5/B2</f>
         <v>6.9541029207232263E-2</v>
       </c>
       <c r="F2" s="2">
-        <f>0.5/C2</f>
+        <f t="shared" ref="F2:F31" si="1">0.5/C2</f>
         <v>0.1519756838905775</v>
       </c>
       <c r="G2" s="2">
@@ -507,8 +507,12 @@
         <f>2*J2</f>
         <v>7.9554494828957836E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <f>K2/I2</f>
+        <v>1.1657450101320019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>8.02</v>
       </c>
@@ -516,15 +520,15 @@
         <v>3.65</v>
       </c>
       <c r="E3" s="2">
-        <f>0.5/B3</f>
+        <f t="shared" si="0"/>
         <v>6.2344139650872821E-2</v>
       </c>
       <c r="F3" s="2">
-        <f>0.5/C3</f>
+        <f t="shared" si="1"/>
         <v>0.13698630136986301</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>7.91</v>
       </c>
@@ -532,15 +536,15 @@
         <v>4.51</v>
       </c>
       <c r="E4" s="2">
-        <f>0.5/B4</f>
+        <f t="shared" si="0"/>
         <v>6.3211125158027806E-2</v>
       </c>
       <c r="F4" s="2">
-        <f>0.5/C4</f>
+        <f t="shared" si="1"/>
         <v>0.11086474501108648</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -554,11 +558,11 @@
         <v>37.04</v>
       </c>
       <c r="E5" s="2">
-        <f>0.5/B5</f>
+        <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
       <c r="F5" s="2">
-        <f>0.5/C5</f>
+        <f t="shared" si="1"/>
         <v>0.16835016835016833</v>
       </c>
       <c r="G5" s="2">
@@ -570,7 +574,7 @@
         <v>0.27416022433701631</v>
       </c>
       <c r="I5" s="2">
-        <f t="shared" ref="I5:I29" si="0">H5-G5</f>
+        <f t="shared" ref="I5:I29" si="2">H5-G5</f>
         <v>0.11554505668063755</v>
       </c>
       <c r="J5" s="2">
@@ -578,11 +582,15 @@
         <v>1.3498920086393088E-2</v>
       </c>
       <c r="K5" s="2">
-        <f t="shared" ref="K3:K31" si="1">2*J5</f>
+        <f t="shared" ref="K5:K29" si="3">2*J5</f>
         <v>2.6997840172786176E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L5">
+        <f>K5/I5</f>
+        <v>0.23365638434370456</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3.19</v>
       </c>
@@ -590,15 +598,15 @@
         <v>3.05</v>
       </c>
       <c r="E6" s="2">
-        <f>0.5/B6</f>
+        <f t="shared" si="0"/>
         <v>0.15673981191222572</v>
       </c>
       <c r="F6" s="2">
-        <f>0.5/C6</f>
+        <f t="shared" si="1"/>
         <v>0.16393442622950821</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3.28</v>
       </c>
@@ -606,15 +614,15 @@
         <v>1.02</v>
       </c>
       <c r="E7" s="2">
-        <f>0.5/B7</f>
+        <f t="shared" si="0"/>
         <v>0.1524390243902439</v>
       </c>
       <c r="F7" s="2">
-        <f>0.5/C7</f>
+        <f t="shared" si="1"/>
         <v>0.49019607843137253</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -628,11 +636,11 @@
         <v>73.73</v>
       </c>
       <c r="E8" s="2">
-        <f>0.5/B8</f>
+        <f t="shared" si="0"/>
         <v>0.34965034965034969</v>
       </c>
       <c r="F8" s="2">
-        <f>0.5/C8</f>
+        <f t="shared" si="1"/>
         <v>0.40322580645161293</v>
       </c>
       <c r="G8" s="2">
@@ -644,7 +652,7 @@
         <v>0.40669670052559254</v>
       </c>
       <c r="I8" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4736979455701931E-2</v>
       </c>
       <c r="J8" s="2">
@@ -652,11 +660,15 @@
         <v>6.7815000678150003E-3</v>
       </c>
       <c r="K8" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3563000135630001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L8">
+        <f>K8/I8</f>
+        <v>0.30317201341364441</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1.6</v>
       </c>
@@ -664,15 +676,15 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="E9" s="2">
-        <f>0.5/B9</f>
+        <f t="shared" si="0"/>
         <v>0.3125</v>
       </c>
       <c r="F9" s="2">
-        <f>0.5/C9</f>
+        <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1.18</v>
       </c>
@@ -680,15 +692,15 @@
         <v>1.38</v>
       </c>
       <c r="E10" s="2">
-        <f>0.5/B10</f>
+        <f t="shared" si="0"/>
         <v>0.42372881355932207</v>
       </c>
       <c r="F10" s="2">
-        <f>0.5/C10</f>
+        <f t="shared" si="1"/>
         <v>0.3623188405797102</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -702,11 +714,11 @@
         <v>72.05</v>
       </c>
       <c r="E11" s="2">
-        <f>0.5/B11</f>
+        <f t="shared" si="0"/>
         <v>0.390625</v>
       </c>
       <c r="F11" s="2">
-        <f>0.5/C11</f>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="G11" s="2">
@@ -718,7 +730,7 @@
         <v>0.42508012820512819</v>
       </c>
       <c r="I11" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3.1342959914388457E-2</v>
       </c>
       <c r="J11" s="2">
@@ -726,11 +738,15 @@
         <v>6.9396252602359479E-3</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3879250520471896E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L11">
+        <f>K11/I11</f>
+        <v>0.44281875605821186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -738,15 +754,15 @@
         <v>1.28</v>
       </c>
       <c r="E12" s="2">
-        <f>0.5/B12</f>
+        <f t="shared" si="0"/>
         <v>0.4504504504504504</v>
       </c>
       <c r="F12" s="2">
-        <f>0.5/C12</f>
+        <f t="shared" si="1"/>
         <v>0.390625</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1.47</v>
       </c>
@@ -754,15 +770,15 @@
         <v>1.3</v>
       </c>
       <c r="E13" s="2">
-        <f>0.5/B13</f>
+        <f t="shared" si="0"/>
         <v>0.3401360544217687</v>
       </c>
       <c r="F13" s="2">
-        <f>0.5/C13</f>
+        <f t="shared" si="1"/>
         <v>0.38461538461538458</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -776,11 +792,11 @@
         <v>26.8</v>
       </c>
       <c r="E14" s="2">
-        <f>0.5/B14</f>
+        <f t="shared" si="0"/>
         <v>9.2936802973977703E-2</v>
       </c>
       <c r="F14" s="2">
-        <f>0.5/C14</f>
+        <f t="shared" si="1"/>
         <v>0.24271844660194175</v>
       </c>
       <c r="G14" s="2">
@@ -792,7 +808,7 @@
         <v>0.20532146486861927</v>
       </c>
       <c r="I14" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.1253397454826923E-2</v>
       </c>
       <c r="J14" s="2">
@@ -800,11 +816,15 @@
         <v>1.8656716417910446E-2</v>
       </c>
       <c r="K14" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.7313432835820892E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L14">
+        <f>K14/I14</f>
+        <v>0.90449357235800154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1.95</v>
       </c>
@@ -812,15 +832,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="E15" s="2">
-        <f>0.5/B15</f>
+        <f t="shared" si="0"/>
         <v>0.25641025641025644</v>
       </c>
       <c r="F15" s="2">
-        <f>0.5/C15</f>
+        <f t="shared" si="1"/>
         <v>0.21551724137931036</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3.5</v>
       </c>
@@ -828,15 +848,15 @@
         <v>3.17</v>
       </c>
       <c r="E16" s="2">
-        <f>0.5/B16</f>
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
       <c r="F16" s="2">
-        <f>0.5/C16</f>
+        <f t="shared" si="1"/>
         <v>0.15772870662460567</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -850,11 +870,11 @@
         <v>62.36</v>
       </c>
       <c r="E17" s="2">
-        <f>0.5/B17</f>
+        <f t="shared" si="0"/>
         <v>0.27472527472527469</v>
       </c>
       <c r="F17" s="2">
-        <f>0.5/C17</f>
+        <f t="shared" si="1"/>
         <v>0.17857142857142858</v>
       </c>
       <c r="G17" s="2">
@@ -866,7 +886,7 @@
         <v>0.19266575131581684</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.0115295235948996E-2</v>
       </c>
       <c r="J17" s="2">
@@ -874,11 +894,15 @@
         <v>8.0179602309172551E-3</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.603592046183451E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L17">
+        <f>K17/I17</f>
+        <v>0.26675275233855988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7.8</v>
       </c>
@@ -886,15 +910,15 @@
         <v>2.1800000000000002</v>
       </c>
       <c r="E18" s="2">
-        <f>0.5/B18</f>
+        <f t="shared" si="0"/>
         <v>6.4102564102564111E-2</v>
       </c>
       <c r="F18" s="2">
-        <f>0.5/C18</f>
+        <f t="shared" si="1"/>
         <v>0.2293577981651376</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>8.5</v>
       </c>
@@ -902,15 +926,15 @@
         <v>2.94</v>
       </c>
       <c r="E19" s="2">
-        <f>0.5/B19</f>
+        <f t="shared" si="0"/>
         <v>5.8823529411764705E-2</v>
       </c>
       <c r="F19" s="2">
-        <f>0.5/C19</f>
+        <f t="shared" si="1"/>
         <v>0.17006802721088435</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -924,11 +948,11 @@
         <v>31.75</v>
       </c>
       <c r="E20" s="2">
-        <f>0.5/B20</f>
+        <f t="shared" si="0"/>
         <v>5.3821313240043064E-2</v>
       </c>
       <c r="F20" s="2">
-        <f>0.5/C20</f>
+        <f t="shared" si="1"/>
         <v>0.13440860215053763</v>
       </c>
       <c r="G20" s="2">
@@ -940,7 +964,7 @@
         <v>0.13679469700713454</v>
       </c>
       <c r="I20" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.716759842256766E-2</v>
       </c>
       <c r="J20" s="2">
@@ -948,11 +972,15 @@
         <v>1.5748031496062992E-2</v>
       </c>
       <c r="K20" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3.1496062992125984E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L20">
+        <f>K20/I20</f>
+        <v>0.36132764424047348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>8.2899999999999991</v>
       </c>
@@ -960,15 +988,15 @@
         <v>4.1100000000000003</v>
       </c>
       <c r="E21" s="2">
-        <f>0.5/B21</f>
+        <f t="shared" si="0"/>
         <v>6.0313630880579019E-2</v>
       </c>
       <c r="F21" s="2">
-        <f>0.5/C21</f>
+        <f t="shared" si="1"/>
         <v>0.121654501216545</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>14.39</v>
       </c>
@@ -976,15 +1004,15 @@
         <v>3.24</v>
       </c>
       <c r="E22" s="2">
-        <f>0.5/B22</f>
+        <f t="shared" si="0"/>
         <v>3.4746351633078529E-2</v>
       </c>
       <c r="F22" s="2">
-        <f>0.5/C22</f>
+        <f t="shared" si="1"/>
         <v>0.15432098765432098</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -998,11 +1026,11 @@
         <v>20.41</v>
       </c>
       <c r="E23" s="2">
-        <f>0.5/B23</f>
+        <f t="shared" si="0"/>
         <v>7.3855243722304287E-2</v>
       </c>
       <c r="F23" s="2">
-        <f>0.5/C23</f>
+        <f t="shared" si="1"/>
         <v>6.0901339829476243E-2</v>
       </c>
       <c r="G23" s="2">
@@ -1014,7 +1042,7 @@
         <v>6.8571422067809792E-2</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1.5343472280006938E-2</v>
       </c>
       <c r="J23" s="2">
@@ -1022,11 +1050,15 @@
         <v>2.4497795198432142E-2</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4.8995590396864283E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L23">
+        <f>K23/I23</f>
+        <v>3.1932530983033867</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>10.65</v>
       </c>
@@ -1034,15 +1066,15 @@
         <v>8.51</v>
       </c>
       <c r="E24" s="2">
-        <f>0.5/B24</f>
+        <f t="shared" si="0"/>
         <v>4.6948356807511735E-2</v>
       </c>
       <c r="F24" s="2">
-        <f>0.5/C24</f>
+        <f t="shared" si="1"/>
         <v>5.8754406580493537E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>12.86</v>
       </c>
@@ -1050,15 +1082,15 @@
         <v>5.81</v>
       </c>
       <c r="E25" s="2">
-        <f>0.5/B25</f>
+        <f t="shared" si="0"/>
         <v>3.8880248833592534E-2</v>
       </c>
       <c r="F25" s="2">
-        <f>0.5/C25</f>
+        <f t="shared" si="1"/>
         <v>8.6058519793459562E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1072,11 +1104,11 @@
         <v>72.52</v>
       </c>
       <c r="E26" s="2">
-        <f>0.5/B26</f>
+        <f t="shared" si="0"/>
         <v>0.24509803921568626</v>
       </c>
       <c r="F26" s="2">
-        <f>0.5/C26</f>
+        <f t="shared" si="1"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="G26" s="2">
@@ -1088,7 +1120,7 @@
         <v>0.28934643877893745</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.7869072801818605E-2</v>
       </c>
       <c r="J26" s="2">
@@ -1096,11 +1128,15 @@
         <v>6.8946497517926092E-3</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3789299503585218E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L26">
+        <f>K26/I26</f>
+        <v>0.23828443823195095</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>2.13</v>
       </c>
@@ -1108,15 +1144,15 @@
         <v>1.78</v>
       </c>
       <c r="E27" s="2">
-        <f>0.5/B27</f>
+        <f t="shared" si="0"/>
         <v>0.23474178403755869</v>
       </c>
       <c r="F27" s="2">
-        <f>0.5/C27</f>
+        <f t="shared" si="1"/>
         <v>0.2808988764044944</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2.33</v>
       </c>
@@ -1124,15 +1160,15 @@
         <v>1.97</v>
       </c>
       <c r="E28" s="2">
-        <f>0.5/B28</f>
+        <f t="shared" si="0"/>
         <v>0.21459227467811159</v>
       </c>
       <c r="F28" s="2">
-        <f>0.5/C28</f>
+        <f t="shared" si="1"/>
         <v>0.25380710659898476</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1146,11 +1182,11 @@
         <v>73.849999999999994</v>
       </c>
       <c r="E29" s="2">
-        <f>0.5/B29</f>
+        <f t="shared" si="0"/>
         <v>0.24271844660194175</v>
       </c>
       <c r="F29" s="2">
-        <f>0.5/C29</f>
+        <f t="shared" si="1"/>
         <v>0.30864197530864196</v>
       </c>
       <c r="G29" s="2">
@@ -1162,7 +1198,7 @@
         <v>0.28962348688389461</v>
       </c>
       <c r="I29" s="2">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.6938033329881899E-2</v>
       </c>
       <c r="J29" s="2">
@@ -1170,11 +1206,15 @@
         <v>6.7704807041299936E-3</v>
       </c>
       <c r="K29" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1.3540961408259987E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L29">
+        <f>K29/I29</f>
+        <v>0.23781926800681216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1.99</v>
       </c>
@@ -1182,15 +1222,15 @@
         <v>1.79</v>
       </c>
       <c r="E30" s="2">
-        <f>0.5/B30</f>
+        <f t="shared" si="0"/>
         <v>0.25125628140703515</v>
       </c>
       <c r="F30" s="2">
-        <f>0.5/C30</f>
+        <f t="shared" si="1"/>
         <v>0.27932960893854747</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>2.4500000000000002</v>
       </c>
@@ -1198,11 +1238,11 @@
         <v>1.78</v>
       </c>
       <c r="E31" s="2">
-        <f>0.5/B31</f>
+        <f t="shared" si="0"/>
         <v>0.2040816326530612</v>
       </c>
       <c r="F31" s="2">
-        <f>0.5/C31</f>
+        <f t="shared" si="1"/>
         <v>0.2808988764044944</v>
       </c>
     </row>

--- a/200V_Geschw.xlsx
+++ b/200V_Geschw.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\Physik\Grundpraktikum 2\V503---Millikanversuch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63126F40-99B3-40BC-8720-A75023A81759}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E1BB73-D290-44B2-8662-85C12027D296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{EA0D0934-3C96-42B7-BB04-03236E4DF0BE}"/>
+    <workbookView xWindow="7320" yWindow="3375" windowWidth="21600" windowHeight="11295" xr2:uid="{EA0D0934-3C96-42B7-BB04-03236E4DF0BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>tab</t>
   </si>
@@ -66,6 +66,12 @@
   </si>
   <si>
     <t>2v0</t>
+  </si>
+  <si>
+    <t>mtauf</t>
+  </si>
+  <si>
+    <t>mtab</t>
   </si>
 </sst>
 </file>
@@ -422,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0ED0EE7E-16F1-4C78-A30B-FCABAD72C073}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,7 +440,7 @@
     <col min="5" max="11" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -465,8 +471,14 @@
       <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -511,8 +523,16 @@
         <f>K2/I2</f>
         <v>1.1657450101320019</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <f>AVERAGE(B2:B4)</f>
+        <v>7.706666666666667</v>
+      </c>
+      <c r="N2" s="1">
+        <f>AVERAGE(C2:C4)</f>
+        <v>3.8166666666666664</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>8.02</v>
       </c>
@@ -527,8 +547,10 @@
         <f t="shared" si="1"/>
         <v>0.13698630136986301</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>7.91</v>
       </c>
@@ -543,8 +565,10 @@
         <f t="shared" si="1"/>
         <v>0.11086474501108648</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -589,8 +613,16 @@
         <f>K5/I5</f>
         <v>0.23365638434370456</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="1">
+        <f t="shared" ref="M3:M31" si="4">AVERAGE(B5:B7)</f>
+        <v>3.1566666666666663</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" ref="N3:N31" si="5">AVERAGE(C5:C7)</f>
+        <v>2.3466666666666662</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>3.19</v>
       </c>
@@ -605,8 +637,10 @@
         <f t="shared" si="1"/>
         <v>0.16393442622950821</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>3.28</v>
       </c>
@@ -621,8 +655,10 @@
         <f t="shared" si="1"/>
         <v>0.49019607843137253</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -667,8 +703,16 @@
         <f>K8/I8</f>
         <v>0.30317201341364441</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="1">
+        <f t="shared" si="4"/>
+        <v>1.4033333333333333</v>
+      </c>
+      <c r="N8" s="1">
+        <f t="shared" si="5"/>
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>1.6</v>
       </c>
@@ -683,8 +727,10 @@
         <f t="shared" si="1"/>
         <v>0.45454545454545453</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>1.18</v>
       </c>
@@ -699,8 +745,10 @@
         <f t="shared" si="1"/>
         <v>0.3623188405797102</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -745,8 +793,16 @@
         <f>K11/I11</f>
         <v>0.44281875605821186</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M11" s="1">
+        <f t="shared" si="4"/>
+        <v>1.2866666666666668</v>
+      </c>
+      <c r="N11" s="1">
+        <f t="shared" si="5"/>
+        <v>1.1933333333333334</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>1.1100000000000001</v>
       </c>
@@ -761,8 +817,10 @@
         <f t="shared" si="1"/>
         <v>0.390625</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>1.47</v>
       </c>
@@ -777,8 +835,10 @@
         <f t="shared" si="1"/>
         <v>0.38461538461538458</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -823,8 +883,16 @@
         <f>K14/I14</f>
         <v>0.90449357235800154</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M14" s="1">
+        <f t="shared" si="4"/>
+        <v>3.61</v>
+      </c>
+      <c r="N14" s="1">
+        <f t="shared" si="5"/>
+        <v>2.5166666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>1.95</v>
       </c>
@@ -839,8 +907,10 @@
         <f t="shared" si="1"/>
         <v>0.21551724137931036</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>3.5</v>
       </c>
@@ -855,8 +925,10 @@
         <f t="shared" si="1"/>
         <v>0.15772870662460567</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -901,8 +973,16 @@
         <f>K17/I17</f>
         <v>0.26675275233855988</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M17" s="1">
+        <f t="shared" si="4"/>
+        <v>6.0399999999999991</v>
+      </c>
+      <c r="N17" s="1">
+        <f t="shared" si="5"/>
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1">
         <v>7.8</v>
       </c>
@@ -917,8 +997,10 @@
         <f t="shared" si="1"/>
         <v>0.2293577981651376</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1">
         <v>8.5</v>
       </c>
@@ -933,8 +1015,10 @@
         <f t="shared" si="1"/>
         <v>0.17006802721088435</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -979,8 +1063,16 @@
         <f>K20/I20</f>
         <v>0.36132764424047348</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M20" s="1">
+        <f t="shared" si="4"/>
+        <v>10.656666666666666</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="5"/>
+        <v>3.69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1">
         <v>8.2899999999999991</v>
       </c>
@@ -995,8 +1087,10 @@
         <f t="shared" si="1"/>
         <v>0.121654501216545</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>14.39</v>
       </c>
@@ -1011,8 +1105,10 @@
         <f t="shared" si="1"/>
         <v>0.15432098765432098</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1057,8 +1153,16 @@
         <f>K23/I23</f>
         <v>3.1932530983033867</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M23" s="1">
+        <f t="shared" si="4"/>
+        <v>10.093333333333334</v>
+      </c>
+      <c r="N23" s="1">
+        <f t="shared" si="5"/>
+        <v>7.5099999999999989</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>10.65</v>
       </c>
@@ -1073,8 +1177,10 @@
         <f t="shared" si="1"/>
         <v>5.8754406580493537E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>12.86</v>
       </c>
@@ -1089,8 +1195,10 @@
         <f t="shared" si="1"/>
         <v>8.6058519793459562E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1135,8 +1243,16 @@
         <f>K26/I26</f>
         <v>0.23828443823195095</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M26" s="1">
+        <f>AVERAGE(B26:B28)</f>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N26" s="1">
+        <f t="shared" si="5"/>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>2.13</v>
       </c>
@@ -1151,8 +1267,10 @@
         <f t="shared" si="1"/>
         <v>0.2808988764044944</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1">
         <v>2.33</v>
       </c>
@@ -1167,8 +1285,10 @@
         <f t="shared" si="1"/>
         <v>0.25380710659898476</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1213,8 +1333,16 @@
         <f>K29/I29</f>
         <v>0.23781926800681216</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M29" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="N29" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7300000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1">
         <v>1.99</v>
       </c>
@@ -1229,8 +1357,10 @@
         <f t="shared" si="1"/>
         <v>0.27932960893854747</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1">
         <v>2.4500000000000002</v>
       </c>
@@ -1245,6 +1375,8 @@
         <f t="shared" si="1"/>
         <v>0.2808988764044944</v>
       </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
